--- a/output/fit_clients/fit_round_292.xlsx
+++ b/output/fit_clients/fit_round_292.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2081607417.865715</v>
+        <v>1530193912.662269</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08499873540631024</v>
+        <v>0.113111066324356</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02988290026972702</v>
+        <v>0.03209122185275085</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1040803715.549505</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1888599056.733238</v>
+        <v>1942005020.127422</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1298390228222437</v>
+        <v>0.1503380632129464</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04830285082008631</v>
+        <v>0.04261973142418556</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>944299551.1762618</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3474941537.185513</v>
+        <v>4670008310.567279</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1137029620602972</v>
+        <v>0.1328406635457517</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02664070253833012</v>
+        <v>0.03535299902960229</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>105</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1737470745.573086</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4055742444.900639</v>
+        <v>2923503455.981681</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09869419319761109</v>
+        <v>0.07803721652664822</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03917380889507892</v>
+        <v>0.04588337031921676</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>111</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2027871222.463306</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2220550362.841009</v>
+        <v>2290632737.815223</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1466903289845071</v>
+        <v>0.137275572744612</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05073795016124198</v>
+        <v>0.04453169542321919</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>54</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1110275187.14671</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2981157120.504368</v>
+        <v>3084107047.029152</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09467379331529165</v>
+        <v>0.08900874600448777</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03588486317430584</v>
+        <v>0.04309160130277368</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>92</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1490578527.013162</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3253579818.624642</v>
+        <v>3609080442.461644</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1606315482207218</v>
+        <v>0.1404385953969072</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02196291862772779</v>
+        <v>0.0227200709656458</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>93</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1626789992.748405</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1501836241.9749</v>
+        <v>2166856159.639728</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1962929819108402</v>
+        <v>0.1205857216516654</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02508480580809147</v>
+        <v>0.02435398421062171</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>750918216.7203715</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4722972677.124749</v>
+        <v>4396666973.405766</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1370191244410074</v>
+        <v>0.1814495906092554</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04063331529939742</v>
+        <v>0.04871955091676188</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>123</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2361486416.41519</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3391552442.674189</v>
+        <v>3680967262.92267</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1774357135413515</v>
+        <v>0.1702382828519722</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04119422491436867</v>
+        <v>0.0414208896256151</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>121</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1695776191.628555</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3103587085.767383</v>
+        <v>2646722506.466727</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1937280328150178</v>
+        <v>0.129870093227888</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03427444679409612</v>
+        <v>0.04746443796119312</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>98</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1551793570.361857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4525072878.724332</v>
+        <v>5140964096.6795</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06205800445656128</v>
+        <v>0.06176707450754525</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01966316001721918</v>
+        <v>0.0279309464534651</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>98</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2262536467.620911</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3642161304.530634</v>
+        <v>3678064450.309677</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1237681689261859</v>
+        <v>0.1793469246025715</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03881565183043417</v>
+        <v>0.03093817088939781</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>94</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1821080640.198011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1427658034.79907</v>
+        <v>1576357432.400304</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1086342863645926</v>
+        <v>0.06700930634561669</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03187426149141441</v>
+        <v>0.03764906002408155</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>713829086.4956626</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2686241599.227123</v>
+        <v>1821686657.297497</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07318146025521161</v>
+        <v>0.09648190720955632</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04356938553178122</v>
+        <v>0.05000077711142634</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>57</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1343120813.788938</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4180778116.122045</v>
+        <v>5218012295.893987</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1103034668352654</v>
+        <v>0.1302019573209556</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04494710799962445</v>
+        <v>0.05122879808853593</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>85</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2090389083.745471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3064989234.48828</v>
+        <v>2535932250.499288</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1183856627653911</v>
+        <v>0.1538189115097562</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03424921644434609</v>
+        <v>0.03203949549368553</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>95</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1532494642.800383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>906854605.3769377</v>
+        <v>967483264.254319</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1415134582927204</v>
+        <v>0.1310189901517401</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02235437568725577</v>
+        <v>0.02131221347525624</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>453427309.2478017</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2443486498.613684</v>
+        <v>2619081831.240403</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1159954280800342</v>
+        <v>0.1294398875629071</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02316309797820935</v>
+        <v>0.0306254988497213</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1221743228.420865</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2677265233.835133</v>
+        <v>1773381558.540524</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07109829829179587</v>
+        <v>0.08502115161539874</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04545598578297638</v>
+        <v>0.037216481663817</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>24</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1338632588.062302</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3585356586.30808</v>
+        <v>3141998190.760356</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1173116718973666</v>
+        <v>0.08955904730427913</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05551613392928773</v>
+        <v>0.03957846321572088</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>81</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1792678319.633062</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1141408490.657299</v>
+        <v>1229065643.59458</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1694679695119977</v>
+        <v>0.1350429572021668</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04198261315109351</v>
+        <v>0.03698098751777072</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>570704291.6807219</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2521498798.701045</v>
+        <v>2622286295.536725</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1498173371243963</v>
+        <v>0.133781097643397</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03393363899959805</v>
+        <v>0.02282812451133012</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>85</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1260749466.765676</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1413732010.625842</v>
+        <v>1319553963.416687</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1024056183268605</v>
+        <v>0.0917472950221454</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02424449649656022</v>
+        <v>0.01861125400610281</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>706865974.1033086</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1029004935.6007</v>
+        <v>1120299216.014512</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1044476731063332</v>
+        <v>0.1148494674333735</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02840601223293428</v>
+        <v>0.02533527611571023</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>514502446.9672206</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3408772057.774176</v>
+        <v>3918271233.691018</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1082090860690136</v>
+        <v>0.1392538209709056</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01648480188780803</v>
+        <v>0.01941183554037614</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1704386068.405281</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3542738953.635774</v>
+        <v>2889310652.156535</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1224481582463305</v>
+        <v>0.1438169454868647</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03316523626802103</v>
+        <v>0.03351102174663773</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>98</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1771369535.180558</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5570280981.80619</v>
+        <v>5130763152.984846</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09751508064283172</v>
+        <v>0.09611261876971966</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03092535265751052</v>
+        <v>0.04197170005808731</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>129</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2785140398.920117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1998235044.603142</v>
+        <v>2206436408.712561</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1033169831852299</v>
+        <v>0.1121094759487903</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03036426668298019</v>
+        <v>0.03231519537333697</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>999117559.5602444</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1136037222.860065</v>
+        <v>1320534175.794737</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08923412685458883</v>
+        <v>0.07679560460096864</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03755681329447126</v>
+        <v>0.0407413298874697</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>568018577.9540006</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1279426508.975815</v>
+        <v>1160287530.771159</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09714044806136167</v>
+        <v>0.09836653653732308</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02371702359734925</v>
+        <v>0.0341574303746627</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>639713277.1511829</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1889349777.8176</v>
+        <v>3098517129.075402</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1317567487528543</v>
+        <v>0.1696352478978818</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03954407965732295</v>
+        <v>0.0369787078799545</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>88</v>
-      </c>
-      <c r="J33" t="n">
-        <v>944674979.1407793</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1352782472.039521</v>
+        <v>950564773.0932158</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0791381325323523</v>
+        <v>0.0977191010956408</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02188064462446021</v>
+        <v>0.02828838846939008</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>676391216.0657011</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1199379824.184579</v>
+        <v>1289157514.651622</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1082030660693804</v>
+        <v>0.1170838829677533</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03784223561777978</v>
+        <v>0.03049533935802239</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>599689886.9691882</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3187736924.742731</v>
+        <v>2571507458.179224</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1558683629368576</v>
+        <v>0.1710686909052787</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02550691151362168</v>
+        <v>0.02134802092944827</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>74</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1593868429.223656</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2104682802.368288</v>
+        <v>2129620599.276761</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0945233877309111</v>
+        <v>0.09992587620055421</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03025548677448118</v>
+        <v>0.03219242637046674</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>77</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1052341442.900295</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2057251234.736107</v>
+        <v>2172614036.760227</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1019395714365304</v>
+        <v>0.1186146647859703</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03565870301965608</v>
+        <v>0.02946926049761182</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1028625587.912135</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2191473652.02946</v>
+        <v>2067949498.849948</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1353931530832632</v>
+        <v>0.1717878478360406</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02484611686286095</v>
+        <v>0.02343505399531757</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1095736791.489086</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1637794472.745908</v>
+        <v>1697932993.410569</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1492818081958217</v>
+        <v>0.1169486968655413</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04838294454778558</v>
+        <v>0.05693846861143338</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>818897168.059868</v>
       </c>
     </row>
     <row r="41">
@@ -1822,22 +1578,16 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2163034832.984134</v>
+        <v>2269044442.639267</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1274568881370583</v>
+        <v>0.1297354504662137</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02914038693726989</v>
+        <v>0.04680991997427985</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>73</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1081517474.803319</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4233062168.959472</v>
+        <v>3955851550.424062</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07695792925361274</v>
+        <v>0.1254107526596104</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03468285009563238</v>
+        <v>0.02847857223189205</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>99</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2116531129.782536</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2357604502.776249</v>
+        <v>2112621771.109883</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1605423478478067</v>
+        <v>0.1801032953273722</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01781969124371192</v>
+        <v>0.01667421389237548</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>107</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1178802314.375693</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1457739721.496763</v>
+        <v>1946138835.222077</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08997847259020979</v>
+        <v>0.1017327483778795</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03352916503367706</v>
+        <v>0.02993496339661872</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>728869858.8945096</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2101893463.630015</v>
+        <v>1978815771.628811</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1740341947145793</v>
+        <v>0.1344436668559082</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05014901723877668</v>
+        <v>0.0485303069273446</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1050946732.937585</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5127163355.152747</v>
+        <v>4650560851.823729</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1447814105409788</v>
+        <v>0.1551986866082121</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04608146977976472</v>
+        <v>0.05444834325863514</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>104</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2563581711.679287</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4208179931.777627</v>
+        <v>4906529007.546304</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1798669288475052</v>
+        <v>0.1991070354305778</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04086443375292301</v>
+        <v>0.04263649803957392</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>78</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2104089976.859033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4416786060.907244</v>
+        <v>3621217568.71733</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08773036917445878</v>
+        <v>0.1096316301864649</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0382853165252969</v>
+        <v>0.03878421250633892</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>99</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2208393040.57554</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1919209646.983707</v>
+        <v>1957770657.424314</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1707630142930517</v>
+        <v>0.1869911873898658</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03425600548813605</v>
+        <v>0.03535020834172415</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>959604790.3329833</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3251103946.324558</v>
+        <v>3943989770.421793</v>
       </c>
       <c r="F50" t="n">
-        <v>0.12396246380819</v>
+        <v>0.1137563474076133</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04457341014988497</v>
+        <v>0.04394919949161364</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>100</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1625552015.121164</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1062602964.139511</v>
+        <v>1413380881.730788</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1627719332142527</v>
+        <v>0.1390715876496917</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0440257696855181</v>
+        <v>0.05443775075024841</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>531301555.8957978</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4716864987.996704</v>
+        <v>3456006467.035898</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1110553717679167</v>
+        <v>0.1077159667694576</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03787969766962673</v>
+        <v>0.06197371090466625</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>120</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2358432508.284395</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2620753648.71809</v>
+        <v>3214923746.656425</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1904058284877058</v>
+        <v>0.1433275742025242</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02439339164326795</v>
+        <v>0.02569127010004394</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>83</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1310376882.98549</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4426408853.969989</v>
+        <v>4019649798.600549</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1290886611189033</v>
+        <v>0.1409640590569052</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03791245165935418</v>
+        <v>0.04905369170610103</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>95</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2213204524.551926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3459591279.480858</v>
+        <v>4849209360.682858</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1991798805185722</v>
+        <v>0.2101198542395014</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03132880170491521</v>
+        <v>0.02364721708766096</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>79</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1729795590.800087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1447033856.79603</v>
+        <v>1447308837.209094</v>
       </c>
       <c r="F56" t="n">
-        <v>0.09957537278194413</v>
+        <v>0.1524510247227304</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0481437586345211</v>
+        <v>0.05013141901686118</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>723516978.4741963</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3317773896.138225</v>
+        <v>3508222440.989905</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1499972167241664</v>
+        <v>0.1586572552697693</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02217664989893717</v>
+        <v>0.02458545879945719</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>93</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1658886979.154542</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1216407368.041339</v>
+        <v>1664846866.610292</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1919351388696682</v>
+        <v>0.1459534419705167</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03766224024697519</v>
+        <v>0.03887704190981772</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>608203741.0259293</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4311157034.406419</v>
+        <v>4383239115.173007</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1227565204348332</v>
+        <v>0.08988703626139036</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04654848709627504</v>
+        <v>0.03493737490988055</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>80</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2155578478.127391</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2573333522.446597</v>
+        <v>2772166600.694757</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1983479481066931</v>
+        <v>0.1545460451086426</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0274246869712042</v>
+        <v>0.02673534828914052</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>90</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1286666786.817848</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2359944370.237126</v>
+        <v>2592981500.242964</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1620708747307896</v>
+        <v>0.1466215687746717</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03208266162146107</v>
+        <v>0.0218387782999587</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>100</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1179972225.950641</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1943287983.956507</v>
+        <v>1964145120.818578</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1286957808912407</v>
+        <v>0.1176019437791262</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04590300107675526</v>
+        <v>0.04059140697537977</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>971644041.549878</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5591918692.843016</v>
+        <v>3653256890.142588</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06785646202317885</v>
+        <v>0.1024946403082283</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0401697154299917</v>
+        <v>0.03824585460423164</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>84</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2795959337.756209</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4735344467.699411</v>
+        <v>3510428865.050864</v>
       </c>
       <c r="F64" t="n">
-        <v>0.186135635807274</v>
+        <v>0.1602056450705725</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02530508152494266</v>
+        <v>0.03200468027264184</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>91</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2367672321.436847</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5636323885.812979</v>
+        <v>4091859137.130066</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1097246573348495</v>
+        <v>0.1597160199844756</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02812129770725256</v>
+        <v>0.01967367597096019</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>105</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2818161863.850331</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3666022848.945547</v>
+        <v>4106466980.984766</v>
       </c>
       <c r="F66" t="n">
-        <v>0.121072508025658</v>
+        <v>0.1482703855966305</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03983096166413497</v>
+        <v>0.04079175590734074</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>85</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1833011380.161593</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3119369452.027643</v>
+        <v>3277570031.837303</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09218289590159048</v>
+        <v>0.06858833182227665</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04377711347840636</v>
+        <v>0.04686642279063968</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>94</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1559684734.194442</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5906644577.747135</v>
+        <v>5202365477.199065</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1242869640038175</v>
+        <v>0.1205014627300983</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04364524998478403</v>
+        <v>0.03300247394463729</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>97</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2953322400.216393</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2179432882.469484</v>
+        <v>1769723388.099946</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1392225415076412</v>
+        <v>0.1169295605614833</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05110161134320972</v>
+        <v>0.05082394703795392</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1089716469.371007</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3537931995.480154</v>
+        <v>3066223607.552319</v>
       </c>
       <c r="F70" t="n">
-        <v>0.071889507770838</v>
+        <v>0.09691429316523316</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03010026420548985</v>
+        <v>0.04097809886995201</v>
       </c>
       <c r="H70" t="b">
         <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>83</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1768966009.748377</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4435897829.917284</v>
+        <v>4422441767.486523</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1366563082933721</v>
+        <v>0.138038221572566</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02288158581036392</v>
+        <v>0.02261873710102232</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>106</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2217948978.586197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1984275906.548172</v>
+        <v>1683645134.257033</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09523746245043485</v>
+        <v>0.08312827233622599</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04684083182176664</v>
+        <v>0.04728630469506945</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>992137902.1721011</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2161674471.422711</v>
+        <v>2159355892.917847</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1091259651136409</v>
+        <v>0.08327739600211509</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05079003703811845</v>
+        <v>0.05065986297412563</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>111</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1080837308.471094</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3227353124.780127</v>
+        <v>3254612371.052073</v>
       </c>
       <c r="F74" t="n">
-        <v>0.149370523833162</v>
+        <v>0.136970320666817</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03145922939655322</v>
+        <v>0.02612464824167708</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>100</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1613676608.15443</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1706258459.73</v>
+        <v>2246514538.081659</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1278256339007789</v>
+        <v>0.1456317519242286</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03272033702399338</v>
+        <v>0.02879588323686496</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>853129221.6501818</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3415774113.679178</v>
+        <v>3946611428.444731</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08303561307062791</v>
+        <v>0.1237193901248594</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02909454875339431</v>
+        <v>0.02714977013226801</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>65</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1707887017.029521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2038414967.670058</v>
+        <v>1812110074.128583</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1366995462546097</v>
+        <v>0.1601372967961277</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03046333467157446</v>
+        <v>0.02818489248118335</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1019207551.027603</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3623444619.431356</v>
+        <v>3657537196.664139</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09339270845333189</v>
+        <v>0.1081660456726819</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0439195207213544</v>
+        <v>0.0473445113985786</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>101</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1811722302.408008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1489784381.004375</v>
+        <v>1282071698.806864</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1324317792262464</v>
+        <v>0.1769823447080474</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03035976830456084</v>
+        <v>0.03667276906295434</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>744892222.9198844</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3988213291.169084</v>
+        <v>4144530783.040205</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08525326634472392</v>
+        <v>0.1114159495045407</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02726842620981828</v>
+        <v>0.03475979836577991</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>61</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1994106644.481609</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5133518113.878339</v>
+        <v>4143236865.391031</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09729342922810232</v>
+        <v>0.1351957168516045</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02905659938854875</v>
+        <v>0.03042327618446279</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>65</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2566759062.243968</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5255077739.431382</v>
+        <v>3591049485.756497</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1932749813530914</v>
+        <v>0.1430654831407602</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02453725830400302</v>
+        <v>0.02134864139220239</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>103</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2627538839.438951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2250174606.389733</v>
+        <v>1685983203.369204</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1527444771119809</v>
+        <v>0.112244974575714</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04551657000993517</v>
+        <v>0.0452454854329066</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1125087319.645987</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2023713374.931103</v>
+        <v>1842994996.897307</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08296732353980629</v>
+        <v>0.1132485650424439</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03652456281343041</v>
+        <v>0.04032661517054519</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1011856689.042763</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2809058900.379719</v>
+        <v>2250172241.806206</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1736645317756082</v>
+        <v>0.1575114126660867</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03641951202398952</v>
+        <v>0.04079688483909737</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>110</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1404529489.261339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2194208527.253207</v>
+        <v>1762337871.476134</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1526391888082565</v>
+        <v>0.1648179799217157</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01933491490963456</v>
+        <v>0.02033541107522803</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>39</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1097104318.264836</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1386969825.81651</v>
+        <v>1036367323.08878</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1766217221022087</v>
+        <v>0.125288996561726</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03815228815141759</v>
+        <v>0.03223577887637456</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>693485016.4088922</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3614619066.083247</v>
+        <v>2614384702.764477</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1152208629007282</v>
+        <v>0.1621586833285757</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02413123913774243</v>
+        <v>0.03943221132632636</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>116</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1807309624.223336</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3037524169.011777</v>
+        <v>2850846872.559992</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1304062091659853</v>
+        <v>0.1603201781771212</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03143095014863682</v>
+        <v>0.02943376857403286</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>99</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1518762119.866068</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2085036571.681848</v>
+        <v>1593637090.497225</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1067002784446485</v>
+        <v>0.09671779264103886</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03643364774794802</v>
+        <v>0.03966138676457446</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1042518371.684172</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1596918861.35659</v>
+        <v>1550497408.688603</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1238510562071904</v>
+        <v>0.1292248609738181</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0596321281794304</v>
+        <v>0.0611185594849705</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>798459456.6781428</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2398502796.345727</v>
+        <v>2110487699.588091</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1099513845261521</v>
+        <v>0.07069574469602631</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04282727917728987</v>
+        <v>0.03354628987655722</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>74</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1199251374.496186</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4406996768.987368</v>
+        <v>3691526391.448164</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1218279186961897</v>
+        <v>0.1394628657273308</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05213061937756065</v>
+        <v>0.03900144850103737</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>91</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2203498358.775552</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2390384656.026809</v>
+        <v>2106675634.44906</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1437726337847735</v>
+        <v>0.1090643380298794</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02693802512933064</v>
+        <v>0.0312932814727765</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1195192377.233941</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3232715731.217543</v>
+        <v>3167467443.519751</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1278332135079011</v>
+        <v>0.1092404750958663</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04039846596674432</v>
+        <v>0.03514581490418199</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>70</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1616357848.444945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1554075169.751593</v>
+        <v>1518223736.24227</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1157494129992241</v>
+        <v>0.1241017397176037</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03767169001392723</v>
+        <v>0.02940558975334525</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>777037619.4646261</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4090933429.188897</v>
+        <v>3921123907.138652</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1100661655275772</v>
+        <v>0.1620190027329317</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02549219244027951</v>
+        <v>0.02613505844034618</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>94</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2045466778.289618</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3230068107.895405</v>
+        <v>3818714596.419917</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1265357750963665</v>
+        <v>0.1257699338708213</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02829173343065501</v>
+        <v>0.03235851221012381</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>77</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1615034054.249321</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2804227888.084672</v>
+        <v>2075170574.401881</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08995827656144213</v>
+        <v>0.1400060582788917</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03297980428810884</v>
+        <v>0.02901887936507048</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>91</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1402113915.815894</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3533411686.597231</v>
+        <v>3100943530.217656</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1435731881655347</v>
+        <v>0.1222134098033546</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02650715651727138</v>
+        <v>0.02441564835907941</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>89</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1766705876.728272</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2755204546.788342</v>
+        <v>2634073422.884972</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1581160076088992</v>
+        <v>0.1880363540453456</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0395623250812452</v>
+        <v>0.04333918852563962</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>115</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1377602330.143478</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_292.xlsx
+++ b/output/fit_clients/fit_round_292.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1530193912.662269</v>
+        <v>2418463691.110397</v>
       </c>
       <c r="F2" t="n">
-        <v>0.113111066324356</v>
+        <v>0.08621259722732109</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03209122185275085</v>
+        <v>0.02969590482381427</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1942005020.127422</v>
+        <v>2218809593.891864</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1503380632129464</v>
+        <v>0.1251639997278047</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04261973142418556</v>
+        <v>0.03934948992608939</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4670008310.567279</v>
+        <v>4560147318.88482</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1328406635457517</v>
+        <v>0.1417295060330722</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03535299902960229</v>
+        <v>0.0298533588629574</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2923503455.981681</v>
+        <v>3681013974.361168</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07803721652664822</v>
+        <v>0.1108474388367953</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04588337031921676</v>
+        <v>0.03203219130004885</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2290632737.815223</v>
+        <v>2027968154.846922</v>
       </c>
       <c r="F6" t="n">
-        <v>0.137275572744612</v>
+        <v>0.1278289882745232</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04453169542321919</v>
+        <v>0.03694122231787902</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3084107047.029152</v>
+        <v>3051214476.458261</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08900874600448777</v>
+        <v>0.09588595255777875</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04309160130277368</v>
+        <v>0.04212942679351429</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3609080442.461644</v>
+        <v>2459135772.635209</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1404385953969072</v>
+        <v>0.1424560882025294</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0227200709656458</v>
+        <v>0.02489856226068773</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,16 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2166856159.639728</v>
+        <v>1544268931.373955</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1205857216516654</v>
+        <v>0.1466181899920325</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02435398421062171</v>
+        <v>0.02332763665988044</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4396666973.405766</v>
+        <v>5691956101.747181</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1814495906092554</v>
+        <v>0.1859666983803691</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04871955091676188</v>
+        <v>0.0532632443473656</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3680967262.92267</v>
+        <v>2772686140.034271</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1702382828519722</v>
+        <v>0.1452037440346985</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0414208896256151</v>
+        <v>0.03355186294425559</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2646722506.466727</v>
+        <v>2352973844.070878</v>
       </c>
       <c r="F12" t="n">
-        <v>0.129870093227888</v>
+        <v>0.1949597412969152</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04746443796119312</v>
+        <v>0.03754167653782477</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5140964096.6795</v>
+        <v>5170212577.447005</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06176707450754525</v>
+        <v>0.09629541841873378</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0279309464534651</v>
+        <v>0.02649164482880054</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3678064450.309677</v>
+        <v>3132649788.036296</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1793469246025715</v>
+        <v>0.1372620672376352</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03093817088939781</v>
+        <v>0.03211626460848938</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1576357432.400304</v>
+        <v>1576845704.037806</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06700930634561669</v>
+        <v>0.1050000342415906</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03764906002408155</v>
+        <v>0.04480047560668841</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1821686657.297497</v>
+        <v>2101757821.622165</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09648190720955632</v>
+        <v>0.1029007648044743</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05000077711142634</v>
+        <v>0.03927476178133622</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5218012295.893987</v>
+        <v>5266725227.535971</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1302019573209556</v>
+        <v>0.1644441194640962</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05122879808853593</v>
+        <v>0.04747025272017757</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2535932250.499288</v>
+        <v>3508058532.528068</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1538189115097562</v>
+        <v>0.11271155596438</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03203949549368553</v>
+        <v>0.02650429761470953</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>967483264.254319</v>
+        <v>880351224.7739862</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1310189901517401</v>
+        <v>0.190131203168632</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02131221347525624</v>
+        <v>0.02577408196782756</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2619081831.240403</v>
+        <v>1921254971.535811</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1294398875629071</v>
+        <v>0.1411544073889514</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0306254988497213</v>
+        <v>0.02553597367043878</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1773381558.540524</v>
+        <v>2328431262.58649</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08502115161539874</v>
+        <v>0.06296247062587455</v>
       </c>
       <c r="G21" t="n">
-        <v>0.037216481663817</v>
+        <v>0.04287686704853797</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3141998190.760356</v>
+        <v>2444640107.434595</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08955904730427913</v>
+        <v>0.1429907831702557</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03957846321572088</v>
+        <v>0.04592160388103519</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1229065643.59458</v>
+        <v>1449174902.853812</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1350429572021668</v>
+        <v>0.1446236464207174</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03698098751777072</v>
+        <v>0.04776208473177485</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2622286295.536725</v>
+        <v>3199104930.637774</v>
       </c>
       <c r="F24" t="n">
-        <v>0.133781097643397</v>
+        <v>0.1022743539682385</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02282812451133012</v>
+        <v>0.03498047885504061</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1319553963.416687</v>
+        <v>1290925725.375704</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0917472950221454</v>
+        <v>0.09791535290122079</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01861125400610281</v>
+        <v>0.02633453821145626</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1120299216.014512</v>
+        <v>1189496762.65229</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1148494674333735</v>
+        <v>0.1152289600939753</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02533527611571023</v>
+        <v>0.0341955127729265</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3918271233.691018</v>
+        <v>3975947286.157155</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1392538209709056</v>
+        <v>0.09842499156595601</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01941183554037614</v>
+        <v>0.02309430597387762</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2889310652.156535</v>
+        <v>3901407571.868791</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1438169454868647</v>
+        <v>0.1431420641515635</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03351102174663773</v>
+        <v>0.03098609449600944</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5130763152.984846</v>
+        <v>5383026421.606311</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09611261876971966</v>
+        <v>0.1101115573697336</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04197170005808731</v>
+        <v>0.0282320325941475</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2206436408.712561</v>
+        <v>2077113559.831357</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1121094759487903</v>
+        <v>0.1150637222356672</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03231519537333697</v>
+        <v>0.03045057123809807</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1320534175.794737</v>
+        <v>1417260742.151912</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07679560460096864</v>
+        <v>0.07926948935051431</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0407413298874697</v>
+        <v>0.04532752777432612</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1160287530.771159</v>
+        <v>1838373125.011171</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09836653653732308</v>
+        <v>0.1165589243710228</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0341574303746627</v>
+        <v>0.03373007415766237</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3098517129.075402</v>
+        <v>2341727824.026606</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1696352478978818</v>
+        <v>0.203717406207046</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0369787078799545</v>
+        <v>0.05046550328661231</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>950564773.0932158</v>
+        <v>1313623491.168518</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0977191010956408</v>
+        <v>0.08713130882695476</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02828838846939008</v>
+        <v>0.02828528014202502</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1289157514.651622</v>
+        <v>901204074.7090334</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1170838829677533</v>
+        <v>0.07196455770874116</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03049533935802239</v>
+        <v>0.04174526969124728</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2571507458.179224</v>
+        <v>2679584844.842301</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1710686909052787</v>
+        <v>0.1218481812327945</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02134802092944827</v>
+        <v>0.0220965889655948</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2129620599.276761</v>
+        <v>1939283552.096297</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09992587620055421</v>
+        <v>0.104246470102715</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03219242637046674</v>
+        <v>0.03913374562188585</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2172614036.760227</v>
+        <v>1334216977.502903</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1186146647859703</v>
+        <v>0.09538896120430709</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02946926049761182</v>
+        <v>0.0360756055347259</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2067949498.849948</v>
+        <v>1639408763.844779</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1717878478360406</v>
+        <v>0.1471105086602854</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02343505399531757</v>
+        <v>0.02514146018105707</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1697932993.410569</v>
+        <v>1503079356.6521</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1169486968655413</v>
+        <v>0.1287959059695055</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05693846861143338</v>
+        <v>0.04098840053455912</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2269044442.639267</v>
+        <v>2381289986.609631</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1297354504662137</v>
+        <v>0.1368081663391418</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04680991997427985</v>
+        <v>0.04293953333034358</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3955851550.424062</v>
+        <v>3491629284.429526</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1254107526596104</v>
+        <v>0.09625976484689616</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02847857223189205</v>
+        <v>0.04643590336079712</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2112621771.109883</v>
+        <v>2417368269.008535</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1801032953273722</v>
+        <v>0.1960823348342103</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01667421389237548</v>
+        <v>0.01977622332182407</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1946138835.222077</v>
+        <v>1547282841.781569</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1017327483778795</v>
+        <v>0.07772951003532606</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02993496339661872</v>
+        <v>0.02267175619487371</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1978815771.628811</v>
+        <v>1741494673.211164</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1344436668559082</v>
+        <v>0.1290637583345596</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0485303069273446</v>
+        <v>0.04039758884792197</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4650560851.823729</v>
+        <v>5089097502.386868</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1551986866082121</v>
+        <v>0.1076450285990992</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05444834325863514</v>
+        <v>0.03865590089685723</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4906529007.546304</v>
+        <v>3470771554.318911</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1991070354305778</v>
+        <v>0.1383795352590637</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04263649803957392</v>
+        <v>0.05458747221118757</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3621217568.71733</v>
+        <v>4612220287.134206</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1096316301864649</v>
+        <v>0.1016761966179125</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03878421250633892</v>
+        <v>0.03030513246100523</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1957770657.424314</v>
+        <v>1602023992.737554</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1869911873898658</v>
+        <v>0.1542994428485468</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03535020834172415</v>
+        <v>0.02781609860068101</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3943989770.421793</v>
+        <v>3277374907.123041</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1137563474076133</v>
+        <v>0.1462869904452963</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04394919949161364</v>
+        <v>0.05026809403031036</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1413380881.730788</v>
+        <v>1432532517.530301</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1390715876496917</v>
+        <v>0.1240810685458948</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05443775075024841</v>
+        <v>0.05106084038418841</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3456006467.035898</v>
+        <v>5169110026.072404</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1077159667694576</v>
+        <v>0.1256779967148099</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06197371090466625</v>
+        <v>0.03936901665649218</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3214923746.656425</v>
+        <v>2578470556.737327</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1433275742025242</v>
+        <v>0.1355132902128164</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02569127010004394</v>
+        <v>0.03516342460339034</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4019649798.600549</v>
+        <v>4323429373.93401</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1409640590569052</v>
+        <v>0.1270708252114771</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04905369170610103</v>
+        <v>0.03844289793283308</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4849209360.682858</v>
+        <v>3192302103.236327</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2101198542395014</v>
+        <v>0.2092890269516276</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02364721708766096</v>
+        <v>0.02643982932015549</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1447308837.209094</v>
+        <v>1643186945.971485</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1524510247227304</v>
+        <v>0.1144856886940981</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05013141901686118</v>
+        <v>0.03961070686542939</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3508222440.989905</v>
+        <v>4235237097.851348</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1586572552697693</v>
+        <v>0.1135423197138187</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02458545879945719</v>
+        <v>0.01739030227923135</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1664846866.610292</v>
+        <v>1549596805.20438</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1459534419705167</v>
+        <v>0.1252181396683475</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03887704190981772</v>
+        <v>0.02863179917802513</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4383239115.173007</v>
+        <v>3832298771.015952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08988703626139036</v>
+        <v>0.1108587335966222</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03493737490988055</v>
+        <v>0.04735424789043542</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2772166600.694757</v>
+        <v>2325825056.517294</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1545460451086426</v>
+        <v>0.132564711059582</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02673534828914052</v>
+        <v>0.02471335920428667</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2592981500.242964</v>
+        <v>2849281126.648496</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1466215687746717</v>
+        <v>0.1357685785528407</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0218387782999587</v>
+        <v>0.02045742076196661</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1964145120.818578</v>
+        <v>1595940385.132172</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1176019437791262</v>
+        <v>0.1592275072874518</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04059140697537977</v>
+        <v>0.04854898200305365</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3653256890.142588</v>
+        <v>4274331621.667978</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1024946403082283</v>
+        <v>0.09388822951946703</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03824585460423164</v>
+        <v>0.03836010889885944</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3510428865.050864</v>
+        <v>3908857340.991724</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1602056450705725</v>
+        <v>0.1228856396661555</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03200468027264184</v>
+        <v>0.03325126360775681</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4091859137.130066</v>
+        <v>3750189710.258323</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1597160199844756</v>
+        <v>0.1072137675976189</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01967367597096019</v>
+        <v>0.01971846036438901</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4106466980.984766</v>
+        <v>3519801591.270391</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1482703855966305</v>
+        <v>0.1534305805153953</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04079175590734074</v>
+        <v>0.03704578337503648</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3277570031.837303</v>
+        <v>2825384400.979855</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06858833182227665</v>
+        <v>0.08124386951223865</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04686642279063968</v>
+        <v>0.05068101132109019</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2334,16 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5202365477.199065</v>
+        <v>4807136770.22768</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1205014627300983</v>
+        <v>0.1418445615637133</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03300247394463729</v>
+        <v>0.03845757160031008</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1769723388.099946</v>
+        <v>1760024097.442133</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1169295605614833</v>
+        <v>0.1590125617577714</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05082394703795392</v>
+        <v>0.03783017548237602</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,16 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3066223607.552319</v>
+        <v>3158947079.845397</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09691429316523316</v>
+        <v>0.09998536267419908</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04097809886995201</v>
+        <v>0.03109203904610048</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4422441767.486523</v>
+        <v>3656282240.43479</v>
       </c>
       <c r="F71" t="n">
-        <v>0.138038221572566</v>
+        <v>0.1389101159449805</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02261873710102232</v>
+        <v>0.02919317669162198</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1683645134.257033</v>
+        <v>1607638258.460763</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08312827233622599</v>
+        <v>0.07289315886770112</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04728630469506945</v>
+        <v>0.05186568240982863</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2159355892.917847</v>
+        <v>3302191328.198838</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08327739600211509</v>
+        <v>0.1052200411488887</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05065986297412563</v>
+        <v>0.03452160810493562</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3254612371.052073</v>
+        <v>2441844759.873812</v>
       </c>
       <c r="F74" t="n">
-        <v>0.136970320666817</v>
+        <v>0.1837505102544165</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02612464824167708</v>
+        <v>0.03015696544181053</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2246514538.081659</v>
+        <v>1705828186.556916</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1456317519242286</v>
+        <v>0.1525160995625306</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02879588323686496</v>
+        <v>0.03486536373477969</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3946611428.444731</v>
+        <v>3726419622.056055</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1237193901248594</v>
+        <v>0.1198860560182537</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02714977013226801</v>
+        <v>0.02648486998637935</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1812110074.128583</v>
+        <v>1627486629.690807</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1601372967961277</v>
+        <v>0.1664404094924606</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02818489248118335</v>
+        <v>0.02219532396285339</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3657537196.664139</v>
+        <v>4411204372.130159</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1081660456726819</v>
+        <v>0.1153831733493131</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0473445113985786</v>
+        <v>0.04342120730181746</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1282071698.806864</v>
+        <v>1925141241.009554</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1769823447080474</v>
+        <v>0.1354620520028232</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03667276906295434</v>
+        <v>0.03913101118193001</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4144530783.040205</v>
+        <v>4129446781.892701</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1114159495045407</v>
+        <v>0.08704109376230294</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03475979836577991</v>
+        <v>0.0252700965963619</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4143236865.391031</v>
+        <v>3830680895.002606</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1351957168516045</v>
+        <v>0.09768135011483808</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03042327618446279</v>
+        <v>0.02191219920696617</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3591049485.756497</v>
+        <v>4076006811.628892</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1430654831407602</v>
+        <v>0.1883652793040804</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02134864139220239</v>
+        <v>0.02214255661564511</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1685983203.369204</v>
+        <v>1897883440.031167</v>
       </c>
       <c r="F83" t="n">
-        <v>0.112244974575714</v>
+        <v>0.1083256652070066</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0452454854329066</v>
+        <v>0.04050474927819334</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1842994996.897307</v>
+        <v>1945627779.599608</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1132485650424439</v>
+        <v>0.07626043843790252</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04032661517054519</v>
+        <v>0.04274691012485664</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2250172241.806206</v>
+        <v>3565013059.17397</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1575114126660867</v>
+        <v>0.1262555938591569</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04079688483909737</v>
+        <v>0.05126624279369767</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1762337871.476134</v>
+        <v>2244522624.810609</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1648179799217157</v>
+        <v>0.1254437371692178</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02033541107522803</v>
+        <v>0.01989091911753581</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1036367323.08878</v>
+        <v>1299578977.755128</v>
       </c>
       <c r="F87" t="n">
-        <v>0.125288996561726</v>
+        <v>0.1486515178472393</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03223577887637456</v>
+        <v>0.02901907984825251</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2614384702.764477</v>
+        <v>3094452983.670687</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1621586833285757</v>
+        <v>0.1286546072001469</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03943221132632636</v>
+        <v>0.03510364985726078</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2850846872.559992</v>
+        <v>2401966909.505024</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1603201781771212</v>
+        <v>0.1416593992170391</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02943376857403286</v>
+        <v>0.02784415240905833</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1593637090.497225</v>
+        <v>1928214208.368381</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09671779264103886</v>
+        <v>0.1235018909828626</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03966138676457446</v>
+        <v>0.04908258403986093</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1550497408.688603</v>
+        <v>2065577693.60318</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1292248609738181</v>
+        <v>0.1956403624385099</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0611185594849705</v>
+        <v>0.04826558557612039</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2110487699.588091</v>
+        <v>2843429561.484707</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07069574469602631</v>
+        <v>0.08162666357957987</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03354628987655722</v>
+        <v>0.03112355403525486</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3691526391.448164</v>
+        <v>3468062879.423495</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1394628657273308</v>
+        <v>0.1337418153908533</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03900144850103737</v>
+        <v>0.04226062296452829</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2106675634.44906</v>
+        <v>1953237919.005577</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1090643380298794</v>
+        <v>0.1382945461053912</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0312932814727765</v>
+        <v>0.03008884152329678</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3167467443.519751</v>
+        <v>3268922489.926772</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1092404750958663</v>
+        <v>0.1328154553456416</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03514581490418199</v>
+        <v>0.03985087673745086</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1518223736.24227</v>
+        <v>1704940401.690564</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1241017397176037</v>
+        <v>0.136200200929722</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02940558975334525</v>
+        <v>0.04509063130876447</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3921123907.138652</v>
+        <v>4928051257.281462</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1620190027329317</v>
+        <v>0.1155312842551051</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02613505844034618</v>
+        <v>0.0210722142725597</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3818714596.419917</v>
+        <v>2872234019.79722</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1257699338708213</v>
+        <v>0.09550152561147958</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03235851221012381</v>
+        <v>0.02381841370294041</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2075170574.401881</v>
+        <v>2238561424.949427</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1400060582788917</v>
+        <v>0.08913006519279673</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02901887936507048</v>
+        <v>0.03029580738098008</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3100943530.217656</v>
+        <v>4278030464.509019</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1222134098033546</v>
+        <v>0.1382529832099126</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02441564835907941</v>
+        <v>0.02015742826744478</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2634073422.884972</v>
+        <v>3037667338.552142</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1880363540453456</v>
+        <v>0.1752789970675572</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04333918852563962</v>
+        <v>0.05543819996827562</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_292.xlsx
+++ b/output/fit_clients/fit_round_292.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2418463691.110397</v>
+        <v>2081500140.440872</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08621259722732109</v>
+        <v>0.0742638199836015</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02969590482381427</v>
+        <v>0.03034337522086417</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2218809593.891864</v>
+        <v>2184097662.007676</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1251639997278047</v>
+        <v>0.1547825280296283</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03934948992608939</v>
+        <v>0.04187964016710211</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4560147318.88482</v>
+        <v>4288716506.674546</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1417295060330722</v>
+        <v>0.1439502218876512</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0298533588629574</v>
+        <v>0.02341687627228686</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>154</v>
+      </c>
+      <c r="J4" t="n">
+        <v>292</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,17 +606,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3681013974.361168</v>
+        <v>3551712975.700086</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1108474388367953</v>
+        <v>0.09021169160399349</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03203219130004885</v>
+        <v>0.04761177984089889</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>119</v>
+      </c>
+      <c r="J5" t="n">
+        <v>292</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2027968154.846922</v>
+        <v>2663534638.814613</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1278289882745232</v>
+        <v>0.1237878796875455</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03694122231787902</v>
+        <v>0.03547169727254231</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3051214476.458261</v>
+        <v>2295404092.602435</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09588595255777875</v>
+        <v>0.06273561854373859</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04212942679351429</v>
+        <v>0.0382179956918602</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2459135772.635209</v>
+        <v>3006273003.606735</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1424560882025294</v>
+        <v>0.2128360412280411</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02489856226068773</v>
+        <v>0.03111844685553266</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>78</v>
+      </c>
+      <c r="J8" t="n">
+        <v>289</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1544268931.373955</v>
+        <v>1651574537.60155</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1466181899920325</v>
+        <v>0.146391608173925</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02332763665988044</v>
+        <v>0.03030939440122605</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +781,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5691956101.747181</v>
+        <v>4936207420.319227</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1859666983803691</v>
+        <v>0.1991151371472471</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0532632443473656</v>
+        <v>0.03909024791575283</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>260</v>
+      </c>
+      <c r="J10" t="n">
+        <v>292</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,23 +810,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2772686140.034271</v>
+        <v>3304662348.88507</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1452037440346985</v>
+        <v>0.147849590898759</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03355186294425559</v>
+        <v>0.0450057750338009</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>118</v>
+      </c>
+      <c r="J11" t="n">
+        <v>289</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +851,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2352973844.070878</v>
+        <v>2267169471.134774</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1949597412969152</v>
+        <v>0.1975876483593682</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03754167653782477</v>
+        <v>0.03512244039037626</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +880,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5170212577.447005</v>
+        <v>4012301403.876907</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09629541841873378</v>
+        <v>0.06671681879950361</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02649164482880054</v>
+        <v>0.02167289985601665</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>149</v>
+      </c>
+      <c r="J13" t="n">
+        <v>292</v>
+      </c>
+      <c r="K13" t="n">
+        <v>86.55504368662596</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +917,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3132649788.036296</v>
+        <v>3494000589.618063</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1372620672376352</v>
+        <v>0.1764892038047598</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03211626460848938</v>
+        <v>0.0303039267317394</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>60</v>
+      </c>
+      <c r="J14" t="n">
+        <v>292</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +952,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1576845704.037806</v>
+        <v>1639022161.280722</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1050000342415906</v>
+        <v>0.102158991916831</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04480047560668841</v>
+        <v>0.03831113569937455</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +993,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2101757821.622165</v>
+        <v>2621341147.677974</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1029007648044743</v>
+        <v>0.09235496615088963</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03927476178133622</v>
+        <v>0.04578142972628662</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1022,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5266725227.535971</v>
+        <v>4567893497.490787</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1644441194640962</v>
+        <v>0.1581575998527642</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04747025272017757</v>
+        <v>0.04372299398852671</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>139</v>
+      </c>
+      <c r="J17" t="n">
+        <v>291</v>
+      </c>
+      <c r="K17" t="n">
+        <v>81.96804852868016</v>
       </c>
     </row>
     <row r="18">
@@ -934,16 +1065,25 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3508058532.528068</v>
+        <v>2595470745.54712</v>
       </c>
       <c r="F18" t="n">
-        <v>0.11271155596438</v>
+        <v>0.171205225415429</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02650429761470953</v>
+        <v>0.03029008904223395</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>75</v>
+      </c>
+      <c r="J18" t="n">
+        <v>291</v>
+      </c>
+      <c r="K18" t="n">
+        <v>40.8594445726613</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>880351224.7739862</v>
+        <v>1339577132.034752</v>
       </c>
       <c r="F19" t="n">
-        <v>0.190131203168632</v>
+        <v>0.1374841331744254</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02577408196782756</v>
+        <v>0.02184895540347181</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1921254971.535811</v>
+        <v>2480060004.156434</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1411544073889514</v>
+        <v>0.1168545015086207</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02553597367043878</v>
+        <v>0.02434130003190808</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2328431262.58649</v>
+        <v>1807924294.613335</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06296247062587455</v>
+        <v>0.07291777881330797</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04287686704853797</v>
+        <v>0.03393805333971697</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2444640107.434595</v>
+        <v>2905080809.964553</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1429907831702557</v>
+        <v>0.105521253788609</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04592160388103519</v>
+        <v>0.05151573982241154</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>79</v>
+      </c>
+      <c r="J22" t="n">
+        <v>291</v>
+      </c>
+      <c r="K22" t="n">
+        <v>47.20074843241623</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1449174902.853812</v>
+        <v>1387680090.618034</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1446236464207174</v>
+        <v>0.1817759184509284</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04776208473177485</v>
+        <v>0.04318439052361785</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3199104930.637774</v>
+        <v>3908983678.24413</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1022743539682385</v>
+        <v>0.1319089464679245</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03498047885504061</v>
+        <v>0.03177709028417348</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>86</v>
+      </c>
+      <c r="J24" t="n">
+        <v>292</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1290925725.375704</v>
+        <v>1060621344.331446</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09791535290122079</v>
+        <v>0.109963484877901</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02633453821145626</v>
+        <v>0.01867774640764069</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1189496762.65229</v>
+        <v>1361105423.199465</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1152289600939753</v>
+        <v>0.09036073034201267</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0341955127729265</v>
+        <v>0.0254774545132118</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3975947286.157155</v>
+        <v>4111463510.161011</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09842499156595601</v>
+        <v>0.1123755360535511</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02309430597387762</v>
+        <v>0.02162356488824982</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>120</v>
+      </c>
+      <c r="J27" t="n">
+        <v>291</v>
+      </c>
+      <c r="K27" t="n">
+        <v>79.59936899694571</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3901407571.868791</v>
+        <v>3262302120.934829</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1431420641515635</v>
+        <v>0.1313428498058142</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03098609449600944</v>
+        <v>0.04866441124349825</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>61</v>
+      </c>
+      <c r="J28" t="n">
+        <v>290</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5383026421.606311</v>
+        <v>4713633248.946995</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1101115573697336</v>
+        <v>0.1170623285033105</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0282320325941475</v>
+        <v>0.04454899770538997</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>277</v>
+      </c>
+      <c r="J29" t="n">
+        <v>292</v>
+      </c>
+      <c r="K29" t="n">
+        <v>86.08087933291007</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1493,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2077113559.831357</v>
+        <v>2188605054.175598</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1150637222356672</v>
+        <v>0.08477936143940151</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03045057123809807</v>
+        <v>0.02493513001467503</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1417260742.151912</v>
+        <v>1371078608.627089</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07926948935051431</v>
+        <v>0.09483686373860073</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04532752777432612</v>
+        <v>0.04366928627862184</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1838373125.011171</v>
+        <v>1553082545.991606</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1165589243710228</v>
+        <v>0.1138456883123409</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03373007415766237</v>
+        <v>0.02801532675926066</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1598,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2341727824.026606</v>
+        <v>1948768796.195667</v>
       </c>
       <c r="F33" t="n">
-        <v>0.203717406207046</v>
+        <v>0.1866596157185117</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05046550328661231</v>
+        <v>0.05002025749795232</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1313623491.168518</v>
+        <v>1117184367.870746</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08713130882695476</v>
+        <v>0.1153268185168114</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02828528014202502</v>
+        <v>0.02251733046007963</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>901204074.7090334</v>
+        <v>1295396399.943426</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07196455770874116</v>
+        <v>0.08642606294011407</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04174526969124728</v>
+        <v>0.02867076184154518</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2679584844.842301</v>
+        <v>2591118944.489397</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1218481812327945</v>
+        <v>0.1639852009225654</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0220965889655948</v>
+        <v>0.0204127591724637</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1738,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1939283552.096297</v>
+        <v>2288764941.142784</v>
       </c>
       <c r="F37" t="n">
-        <v>0.104246470102715</v>
+        <v>0.1048032635915525</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03913374562188585</v>
+        <v>0.02742254565882381</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1334216977.502903</v>
+        <v>1363370377.243078</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09538896120430709</v>
+        <v>0.1076231607413192</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0360756055347259</v>
+        <v>0.03665419835757423</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1639408763.844779</v>
+        <v>2148967150.689705</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1471105086602854</v>
+        <v>0.1643803274350872</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02514146018105707</v>
+        <v>0.03161389252022824</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1503079356.6521</v>
+        <v>1792479962.298678</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1287959059695055</v>
+        <v>0.09792241972794964</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04098840053455912</v>
+        <v>0.05255088816223454</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2381289986.609631</v>
+        <v>2758670842.859057</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1368081663391418</v>
+        <v>0.1203876205857924</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04293953333034358</v>
+        <v>0.03100690732954845</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3491629284.429526</v>
+        <v>3203108528.626922</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09625976484689616</v>
+        <v>0.1244979902344935</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04643590336079712</v>
+        <v>0.03168085368282975</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>121</v>
+      </c>
+      <c r="J42" t="n">
+        <v>291</v>
+      </c>
+      <c r="K42" t="n">
+        <v>65.62370470527468</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2417368269.008535</v>
+        <v>2501241980.639406</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1960823348342103</v>
+        <v>0.2008555661299</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01977622332182407</v>
+        <v>0.01577277765623811</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1547282841.781569</v>
+        <v>2018975221.436489</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07772951003532606</v>
+        <v>0.06758427875229381</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02267175619487371</v>
+        <v>0.0292162039726276</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1741494673.211164</v>
+        <v>2400768586.713127</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1290637583345596</v>
+        <v>0.1538729494936502</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04039758884792197</v>
+        <v>0.03436591922650031</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5089097502.386868</v>
+        <v>4390579278.148195</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1076450285990992</v>
+        <v>0.1213054655480178</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03865590089685723</v>
+        <v>0.05250670171388386</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>172</v>
+      </c>
+      <c r="J46" t="n">
+        <v>292</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3470771554.318911</v>
+        <v>4254905298.514894</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1383795352590637</v>
+        <v>0.1778961015565304</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05458747221118757</v>
+        <v>0.04781273776697385</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>130</v>
+      </c>
+      <c r="J47" t="n">
+        <v>292</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4612220287.134206</v>
+        <v>3319626895.611983</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1016761966179125</v>
+        <v>0.1027801131684901</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03030513246100523</v>
+        <v>0.0306568469234749</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>146</v>
+      </c>
+      <c r="J48" t="n">
+        <v>291</v>
+      </c>
+      <c r="K48" t="n">
+        <v>66.6253700163622</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1602023992.737554</v>
+        <v>1982176751.04526</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1542994428485468</v>
+        <v>0.1896055641094233</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02781609860068101</v>
+        <v>0.03524919974865075</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3277374907.123041</v>
+        <v>3538373072.424105</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1462869904452963</v>
+        <v>0.114071379921804</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05026809403031036</v>
+        <v>0.04141186766315792</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>93</v>
+      </c>
+      <c r="J50" t="n">
+        <v>292</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1432532517.530301</v>
+        <v>1093416369.55283</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1240810685458948</v>
+        <v>0.1940930006488023</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05106084038418841</v>
+        <v>0.05210277749307916</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2267,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5169110026.072404</v>
+        <v>3433327169.420624</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1256779967148099</v>
+        <v>0.1318259610969061</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03936901665649218</v>
+        <v>0.04019901241529394</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>181</v>
+      </c>
+      <c r="J52" t="n">
+        <v>290</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2578470556.737327</v>
+        <v>3266947959.540284</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1355132902128164</v>
+        <v>0.1973669077883336</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03516342460339034</v>
+        <v>0.03217019905603663</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>40</v>
+      </c>
+      <c r="J53" t="n">
+        <v>282</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4323429373.93401</v>
+        <v>3655689964.430598</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1270708252114771</v>
+        <v>0.1075805249279845</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03844289793283308</v>
+        <v>0.04409217608731256</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>154</v>
+      </c>
+      <c r="J54" t="n">
+        <v>291</v>
+      </c>
+      <c r="K54" t="n">
+        <v>74.51608657297794</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3192302103.236327</v>
+        <v>3265162224.489022</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2092890269516276</v>
+        <v>0.1661085283685107</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02643982932015549</v>
+        <v>0.02023400750079746</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>133</v>
+      </c>
+      <c r="J55" t="n">
+        <v>290</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1643186945.971485</v>
+        <v>1439121663.399614</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1144856886940981</v>
+        <v>0.1309138847952159</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03961070686542939</v>
+        <v>0.03933298395912414</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2444,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4235237097.851348</v>
+        <v>4500621359.363522</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1135423197138187</v>
+        <v>0.1708234863161071</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01739030227923135</v>
+        <v>0.02452619189387357</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>118</v>
+      </c>
+      <c r="J57" t="n">
+        <v>292</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2479,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1549596805.20438</v>
+        <v>1607768113.459633</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1252181396683475</v>
+        <v>0.1226361780322334</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02863179917802513</v>
+        <v>0.03112635819070135</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3832298771.015952</v>
+        <v>3873067602.600387</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1108587335966222</v>
+        <v>0.09345331185701747</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04735424789043542</v>
+        <v>0.03869417253929282</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>141</v>
+      </c>
+      <c r="J59" t="n">
+        <v>291</v>
+      </c>
+      <c r="K59" t="n">
+        <v>80.621657304061</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2551,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2325825056.517294</v>
+        <v>2982553229.519987</v>
       </c>
       <c r="F60" t="n">
-        <v>0.132564711059582</v>
+        <v>0.1520632509866492</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02471335920428667</v>
+        <v>0.02149833277847056</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>48</v>
+      </c>
+      <c r="J60" t="n">
+        <v>286</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2849281126.648496</v>
+        <v>2193328139.815998</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1357685785528407</v>
+        <v>0.1112244029000715</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02045742076196661</v>
+        <v>0.02423688380056162</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1595940385.132172</v>
+        <v>1934934748.672126</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1592275072874518</v>
+        <v>0.1639587437446612</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04854898200305365</v>
+        <v>0.04212838316563134</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4274331621.667978</v>
+        <v>4025826327.450876</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09388822951946703</v>
+        <v>0.07601225706776353</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03836010889885944</v>
+        <v>0.04225742946702952</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>142</v>
+      </c>
+      <c r="J63" t="n">
+        <v>291</v>
+      </c>
+      <c r="K63" t="n">
+        <v>82.74315587261009</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3908857340.991724</v>
+        <v>3456674374.943431</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1228856396661555</v>
+        <v>0.1656988373006792</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03325126360775681</v>
+        <v>0.03500790916409646</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>143</v>
+      </c>
+      <c r="J64" t="n">
+        <v>292</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3750189710.258323</v>
+        <v>3909988946.518448</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1072137675976189</v>
+        <v>0.11452430223538</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01971846036438901</v>
+        <v>0.02228947010212901</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>233</v>
+      </c>
+      <c r="J65" t="n">
+        <v>292</v>
+      </c>
+      <c r="K65" t="n">
+        <v>86.57526121954756</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3519801591.270391</v>
+        <v>4819468026.124097</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1534305805153953</v>
+        <v>0.1014354465903437</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03704578337503648</v>
+        <v>0.04168106530630385</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>144</v>
+      </c>
+      <c r="J66" t="n">
+        <v>291</v>
+      </c>
+      <c r="K66" t="n">
+        <v>78.66043765322084</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2825384400.979855</v>
+        <v>3187466182.507004</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08124386951223865</v>
+        <v>0.08533390920853685</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05068101132109019</v>
+        <v>0.03848565124277126</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2837,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4807136770.22768</v>
+        <v>5446029391.905446</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1418445615637133</v>
+        <v>0.128474798218011</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03845757160031008</v>
+        <v>0.04363514315282144</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>154</v>
+      </c>
+      <c r="J68" t="n">
+        <v>292</v>
+      </c>
+      <c r="K68" t="n">
+        <v>87.10255223194594</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2874,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1760024097.442133</v>
+        <v>2261637802.500657</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1590125617577714</v>
+        <v>0.1834675120752324</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03783017548237602</v>
+        <v>0.06020035651412613</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2903,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3158947079.845397</v>
+        <v>3011308506.985252</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09998536267419908</v>
+        <v>0.07900604786040002</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03109203904610048</v>
+        <v>0.04483763016549542</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>43</v>
+      </c>
+      <c r="J70" t="n">
+        <v>291</v>
+      </c>
+      <c r="K70" t="n">
+        <v>50.13195019390788</v>
       </c>
     </row>
     <row r="71">
@@ -2418,16 +2946,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3656282240.43479</v>
+        <v>3861754247.795402</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1389101159449805</v>
+        <v>0.1373208501906798</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02919317669162198</v>
+        <v>0.02140266221010929</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>218</v>
+      </c>
+      <c r="J71" t="n">
+        <v>292</v>
+      </c>
+      <c r="K71" t="n">
+        <v>85.46782186309454</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2983,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1607638258.460763</v>
+        <v>2052429971.56589</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07289315886770112</v>
+        <v>0.0810804888198339</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05186568240982863</v>
+        <v>0.04260330656748601</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3302191328.198838</v>
+        <v>2256635658.063506</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1052200411488887</v>
+        <v>0.08566023183837292</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03452160810493562</v>
+        <v>0.04550895802995156</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>18</v>
+      </c>
+      <c r="J73" t="n">
+        <v>275</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2441844759.873812</v>
+        <v>2432862654.3232</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1837505102544165</v>
+        <v>0.1465076642106519</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03015696544181053</v>
+        <v>0.02478330917742777</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>78</v>
+      </c>
+      <c r="J74" t="n">
+        <v>290</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1705828186.556916</v>
+        <v>2337154717.296651</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1525160995625306</v>
+        <v>0.1304917556703978</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03486536373477969</v>
+        <v>0.02747535159523877</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3123,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3726419622.056055</v>
+        <v>4207813992.498556</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1198860560182537</v>
+        <v>0.1218626629990223</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02648486998637935</v>
+        <v>0.0242303252970389</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>137</v>
+      </c>
+      <c r="J76" t="n">
+        <v>291</v>
+      </c>
+      <c r="K76" t="n">
+        <v>79.80838468995742</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1627486629.690807</v>
+        <v>2045309932.153801</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1664404094924606</v>
+        <v>0.1562575042086741</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02219532396285339</v>
+        <v>0.02190935719233023</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3195,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4411204372.130159</v>
+        <v>4028348694.695196</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1153831733493131</v>
+        <v>0.1249699068522654</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04342120730181746</v>
+        <v>0.04328739998907163</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>145</v>
+      </c>
+      <c r="J78" t="n">
+        <v>292</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1925141241.009554</v>
+        <v>1506174014.125246</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1354620520028232</v>
+        <v>0.1530846975194776</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03913101118193001</v>
+        <v>0.03051808058980768</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3259,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4129446781.892701</v>
+        <v>4118386216.279899</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08704109376230294</v>
+        <v>0.1011217872991862</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0252700965963619</v>
+        <v>0.0350518641006872</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>143</v>
+      </c>
+      <c r="J80" t="n">
+        <v>291</v>
+      </c>
+      <c r="K80" t="n">
+        <v>63.66763392947366</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3296,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3830680895.002606</v>
+        <v>4390357796.07225</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09768135011483808</v>
+        <v>0.08307830375077443</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02191219920696617</v>
+        <v>0.02214601147077608</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>134</v>
+      </c>
+      <c r="J81" t="n">
+        <v>291</v>
+      </c>
+      <c r="K81" t="n">
+        <v>76.39785874434212</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3333,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4076006811.628892</v>
+        <v>3944017268.877804</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1883652793040804</v>
+        <v>0.1805997225813618</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02214255661564511</v>
+        <v>0.02082584347015261</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>214</v>
+      </c>
+      <c r="J82" t="n">
+        <v>292</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1897883440.031167</v>
+        <v>1513197854.94384</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1083256652070066</v>
+        <v>0.1355582008409433</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04050474927819334</v>
+        <v>0.03486911966899475</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1945627779.599608</v>
+        <v>1568257093.209545</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07626043843790252</v>
+        <v>0.09424356699818486</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04274691012485664</v>
+        <v>0.04962051067108948</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3444,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3565013059.17397</v>
+        <v>3302756657.449716</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1262555938591569</v>
+        <v>0.1550733649849238</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05126624279369767</v>
+        <v>0.03875514226765713</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>39</v>
+      </c>
+      <c r="J85" t="n">
+        <v>282</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2244522624.810609</v>
+        <v>2761503300.789242</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1254437371692178</v>
+        <v>0.1258790837709519</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01989091911753581</v>
+        <v>0.02244946639086522</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3514,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1299578977.755128</v>
+        <v>1447189667.569957</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1486515178472393</v>
+        <v>0.1489632268066445</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02901907984825251</v>
+        <v>0.02761255942366552</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3094452983.670687</v>
+        <v>3010783225.90391</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1286546072001469</v>
+        <v>0.1228575556195261</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03510364985726078</v>
+        <v>0.02498903102539459</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>41</v>
+      </c>
+      <c r="J88" t="n">
+        <v>284</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2401966909.505024</v>
+        <v>3381733172.449417</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1416593992170391</v>
+        <v>0.1062418665944729</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02784415240905833</v>
+        <v>0.03803408988265076</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>21</v>
+      </c>
+      <c r="J89" t="n">
+        <v>271</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3619,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1928214208.368381</v>
+        <v>1405193643.775648</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1235018909828626</v>
+        <v>0.1070148162968395</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04908258403986093</v>
+        <v>0.0420523728829718</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2065577693.60318</v>
+        <v>1615941366.500125</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1956403624385099</v>
+        <v>0.1412377905637942</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04826558557612039</v>
+        <v>0.03817751930465776</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2843429561.484707</v>
+        <v>2516333476.477128</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08162666357957987</v>
+        <v>0.07939667686385996</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03112355403525486</v>
+        <v>0.03431113797407285</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3468062879.423495</v>
+        <v>4213783261.103376</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1337418153908533</v>
+        <v>0.113127818841207</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04226062296452829</v>
+        <v>0.04005370271019097</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>128</v>
+      </c>
+      <c r="J93" t="n">
+        <v>292</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1953237919.005577</v>
+        <v>2144215260.079725</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1382945461053912</v>
+        <v>0.1437053440715307</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03008884152329678</v>
+        <v>0.03836805032648828</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3268922489.926772</v>
+        <v>2607679912.871872</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1328154553456416</v>
+        <v>0.1188416317154185</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03985087673745086</v>
+        <v>0.03762550073881352</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1704940401.690564</v>
+        <v>1474575461.420671</v>
       </c>
       <c r="F96" t="n">
-        <v>0.136200200929722</v>
+        <v>0.1197765530373979</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04509063130876447</v>
+        <v>0.03283638961040233</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4928051257.281462</v>
+        <v>3939002722.384758</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1155312842551051</v>
+        <v>0.1598046177429696</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0210722142725597</v>
+        <v>0.02512567874386265</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>144</v>
+      </c>
+      <c r="J97" t="n">
+        <v>292</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2872234019.79722</v>
+        <v>2840272761.916844</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09550152561147958</v>
+        <v>0.1030374565571065</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02381841370294041</v>
+        <v>0.0215680287721757</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>71</v>
+      </c>
+      <c r="J98" t="n">
+        <v>291</v>
+      </c>
+      <c r="K98" t="n">
+        <v>45.88654475289829</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2238561424.949427</v>
+        <v>3372680451.008574</v>
       </c>
       <c r="F99" t="n">
-        <v>0.08913006519279673</v>
+        <v>0.09871947936110703</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03029580738098008</v>
+        <v>0.02855501563983429</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4278030464.509019</v>
+        <v>4797184686.769508</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1382529832099126</v>
+        <v>0.1097066187566044</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02015742826744478</v>
+        <v>0.01803186200051226</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>125</v>
+      </c>
+      <c r="J100" t="n">
+        <v>292</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3037667338.552142</v>
+        <v>3183607343.79381</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1752789970675572</v>
+        <v>0.2159087893879064</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05543819996827562</v>
+        <v>0.04839983520914793</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>26</v>
+      </c>
+      <c r="J101" t="n">
+        <v>281</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
